--- a/LLM Policy Consistency Graphs.xlsx
+++ b/LLM Policy Consistency Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vjvai\Documents\GitHub\Consistency-Analysis-of-LLMs-and-Agents-for-Access-Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B299F322-36D6-4511-8496-F883468280FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD72C9F4-9DD2-44D9-AE97-422D49B38DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91753BD5-0E32-454B-A8E8-593F1E47409D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{91753BD5-0E32-454B-A8E8-593F1E47409D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
   <si>
     <t>Bloom</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>Doesn't include Hallucinated Params</t>
+  </si>
+  <si>
+    <t>Consistency (4 vs 5)</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Verbose with Red Herrings</t>
+  </si>
+  <si>
+    <t>Only Real Params</t>
+  </si>
+  <si>
+    <t>Accuracy (4 vs 5)</t>
+  </si>
+  <si>
+    <t>Hallucinated Params (4 vs 5)</t>
   </si>
 </sst>
 </file>
@@ -1993,6 +2011,1427 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Consistency not</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Including Hallucinated Parameters Prompt Comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$40:$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Bloom</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cohere</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DeepSeek</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gemini</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT 4o-Mini</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT o3-Mini</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Llama3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$40:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91100478468899504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97894736842105201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85263157894736796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97894736842105201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86315789473684201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D7F-4938-B571-1C4D4344923E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verbose with Red Herrings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$40:$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Bloom</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cohere</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DeepSeek</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gemini</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT 4o-Mini</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT o3-Mini</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Llama3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$40:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96842105263157896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84736842105263099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91578947368421004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97894736842105201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93684210526315703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5D7F-4938-B571-1C4D4344923E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1786482047"/>
+        <c:axId val="1786481087"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1786482047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1786481087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1786481087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1786482047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Average Percentage of Correctly Assigned Parameters Prompt Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$49:$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Bloom</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cohere</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DeepSeek</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gemini</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT 4o-Mini</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT o3-Mini</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Llama3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$49:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90526315789473599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75789473684210495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98947368421052595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82105263157894703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDE9-4BC0-A276-34DA5A536DA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verbose with Red Herrings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$49:$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Bloom</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cohere</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DeepSeek</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gemini</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT 4o-Mini</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT o3-Mini</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Llama3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$49:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97894736842105201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89473684210526305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83157894736842097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98947368421052595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96842105263157896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDE9-4BC0-A276-34DA5A536DA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1841318543"/>
+        <c:axId val="1841319023"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1841318543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1841319023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1841319023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1841318543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Average Number of Hallucinated Parameters Prompt Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$58:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Bloom</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cohere</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DeepSeek</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gemini</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT 4o-Mini</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT o3-Mini</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Llama3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$58:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B72-409A-9977-1B7053CBBA48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verbose with Red Herrings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$58:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Bloom</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cohere</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DeepSeek</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gemini</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT 4o-Mini</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT o3-Mini</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Llama3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$58:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B72-409A-9977-1B7053CBBA48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1552600303"/>
+        <c:axId val="1555853327"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1552600303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1555853327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1555853327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1552600303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2153,6 +3592,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3663,6 +5222,1515 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4311,6 +7379,114 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>597694</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>635794</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B7BAFA-5CE6-6607-2E20-5F42C1F74BFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>569118</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>607218</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B183D541-FB1F-12BC-4675-263E7B93A775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>531018</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>569118</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423B90B6-3995-01C6-494C-5A721BEEF566}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4357,6 +7533,42 @@
     <tableColumn id="1" xr3:uid="{067F6B5D-195B-4F80-8C97-27B0681DC086}" name="LLM"/>
     <tableColumn id="2" xr3:uid="{23CE40EC-9F4E-4D30-A5DD-BAF9C2184C73}" name="Without Documentation"/>
     <tableColumn id="3" xr3:uid="{4F167BB5-4B8C-43F4-A260-39EB66A607CA}" name="With Documentation"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2DEFDBBD-5DAD-49BC-8489-7F7A09A0DBA0}" name="Table134568" displayName="Table134568" ref="A39:C46" totalsRowShown="0">
+  <autoFilter ref="A39:C46" xr:uid="{2DEFDBBD-5DAD-49BC-8489-7F7A09A0DBA0}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{767B3B01-BADA-43E9-B2B8-ADD9AA12ABC7}" name="LLM"/>
+    <tableColumn id="2" xr3:uid="{D230E476-7119-4127-85A6-E4AA72327CBE}" name="Default"/>
+    <tableColumn id="3" xr3:uid="{CAE36224-FE18-4110-9CCF-DC5AA21B3130}" name="Verbose with Red Herrings"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E2E25279-C090-48D1-A38C-9C92882C3EED}" name="Table1345689" displayName="Table1345689" ref="A48:C55" totalsRowShown="0">
+  <autoFilter ref="A48:C55" xr:uid="{E2E25279-C090-48D1-A38C-9C92882C3EED}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{737E8200-72C2-4CBF-963B-8FAC5490724D}" name="LLM"/>
+    <tableColumn id="2" xr3:uid="{080838FF-7014-4673-82FF-BEC5CF96881F}" name="Default"/>
+    <tableColumn id="3" xr3:uid="{7433BFD3-0F55-49DF-A420-31B8522599D4}" name="Verbose with Red Herrings"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4BFB1B1D-0454-4A9F-8536-8203AED4DC53}" name="Table134568910" displayName="Table134568910" ref="A57:C64" totalsRowShown="0">
+  <autoFilter ref="A57:C64" xr:uid="{4BFB1B1D-0454-4A9F-8536-8203AED4DC53}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D75317C1-E0AD-42DA-AAD2-60DAE7B582A9}" name="LLM"/>
+    <tableColumn id="2" xr3:uid="{97FE9B73-3E31-45BD-AA3D-6D7B25CE3AD1}" name="Default"/>
+    <tableColumn id="3" xr3:uid="{D7D61656-465E-43D0-A674-CFAE067620E8}" name="Verbose with Red Herrings"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4679,25 +7891,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72593A6C-C90B-4041-872D-B0C79F10C2D8}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.1328125" customWidth="1"/>
+    <col min="2" max="2" width="24.86328125" customWidth="1"/>
+    <col min="3" max="3" width="21.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4708,7 +7920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4719,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4730,7 +7942,7 @@
         <v>10.621428571428501</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4741,7 +7953,7 @@
         <v>2.9357142857142802</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4752,7 +7964,7 @@
         <v>3.96428571428571</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4763,7 +7975,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4774,7 +7986,7 @@
         <v>0.48571428571428499</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4785,7 +7997,7 @@
         <v>7.4357142857142797</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4793,7 +8005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4804,7 +8016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4815,7 +8027,7 @@
         <v>0.88721804511278102</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -4826,7 +8038,7 @@
         <v>0.860150375939849</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -4837,7 +8049,7 @@
         <v>0.74586466165413501</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -4848,7 +8060,7 @@
         <v>0.78646616541353298</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -4859,7 +8071,7 @@
         <v>0.91127819548872102</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -4870,7 +8082,7 @@
         <v>0.91578947368421004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -4881,7 +8093,7 @@
         <v>0.83458646616541299</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -4889,7 +8101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -4900,7 +8112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4911,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -4922,7 +8134,7 @@
         <v>0.860150375939849</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -4933,7 +8145,7 @@
         <v>0.71923561327648899</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -4944,7 +8156,7 @@
         <v>0.71928068043439897</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -4955,7 +8167,7 @@
         <v>0.90379162191192197</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -4966,7 +8178,7 @@
         <v>0.88264948084496897</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -4977,7 +8189,7 @@
         <v>0.64240484972767598</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -4985,7 +8197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -4996,7 +8208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -5007,7 +8219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -5018,7 +8230,7 @@
         <v>0.93233082706766901</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -5029,7 +8241,7 @@
         <v>0.75488721804511205</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -5040,7 +8252,7 @@
         <v>0.83684210526315705</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -5051,7 +8263,7 @@
         <v>0.91428571428571404</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -5062,7 +8274,7 @@
         <v>0.90075187969924797</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -5071,16 +8283,305 @@
       </c>
       <c r="C36">
         <v>0.87218045112781895</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0.91100478468899504</v>
+      </c>
+      <c r="C41">
+        <v>0.96842105263157896</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>0.97894736842105201</v>
+      </c>
+      <c r="C42">
+        <v>0.84736842105263099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>0.85263157894736796</v>
+      </c>
+      <c r="C43">
+        <v>0.91578947368421004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>0.97894736842105201</v>
+      </c>
+      <c r="C44">
+        <v>0.97894736842105201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>0.86315789473684201</v>
+      </c>
+      <c r="C46">
+        <v>0.93684210526315703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>0.90526315789473599</v>
+      </c>
+      <c r="C50">
+        <v>0.97894736842105201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0.89473684210526305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>0.75789473684210495</v>
+      </c>
+      <c r="C52">
+        <v>0.83157894736842097</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>0.98947368421052595</v>
+      </c>
+      <c r="C53">
+        <v>0.98947368421052595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>0.82105263157894703</v>
+      </c>
+      <c r="C55">
+        <v>0.96842105263157896</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>0.8</v>
+      </c>
+      <c r="C59">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>1.6</v>
+      </c>
+      <c r="C61">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>0.5</v>
+      </c>
+      <c r="C62">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>0.5</v>
+      </c>
+      <c r="C63">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>4.3</v>
+      </c>
+      <c r="C64">
+        <v>11.3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="4">
-    <tablePart r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="7">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>